--- a/Course List.xlsx
+++ b/Course List.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppowell\Documents\2017\RAD 301\ClubSignUp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppowell-admin\Source\Repos\itsclubs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8532"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8535"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="516">
   <si>
     <t>SG_A</t>
   </si>
@@ -1041,6 +1041,537 @@
   </si>
   <si>
     <t>Bachelor of Arts in Interior A</t>
+  </si>
+  <si>
+    <t>Bachelor of Business</t>
+  </si>
+  <si>
+    <t>BBus in Business Admin</t>
+  </si>
+  <si>
+    <t>Bachelor of Business in Busine</t>
+  </si>
+  <si>
+    <t>BBus Appl Sport with Business</t>
+  </si>
+  <si>
+    <t>B Bus in Digital Marketing</t>
+  </si>
+  <si>
+    <t>BBus (Hons) Finance &amp; Invest</t>
+  </si>
+  <si>
+    <t>BA (Hons) Insurance Life</t>
+  </si>
+  <si>
+    <t>BA(Hons) Insurance General</t>
+  </si>
+  <si>
+    <t>Level 6 Certificate   in Inter</t>
+  </si>
+  <si>
+    <t>Bachelor of Business in Intern</t>
+  </si>
+  <si>
+    <t>Bachelor of Business in Manage</t>
+  </si>
+  <si>
+    <t>BBus in Marketing and Sales</t>
+  </si>
+  <si>
+    <t>BBus (Hons) Sport &amp; Business</t>
+  </si>
+  <si>
+    <t>BB(Hons) Tourism with EM</t>
+  </si>
+  <si>
+    <t>BA(Hons) English &amp; Psychology</t>
+  </si>
+  <si>
+    <t>BA(Hons) Sociology &amp; Politics</t>
+  </si>
+  <si>
+    <t>Certificate in Counselling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master of Arts in Social Care </t>
+  </si>
+  <si>
+    <t>Master of Arts in Social Work</t>
+  </si>
+  <si>
+    <t>BA (Hons) in Fine Art</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA Hons in Fine Art L8 </t>
+  </si>
+  <si>
+    <t>BA Performing Arts (Acting)</t>
+  </si>
+  <si>
+    <t>BA Performing Arts (Theatre)</t>
+  </si>
+  <si>
+    <t>HC Construction Economics</t>
+  </si>
+  <si>
+    <t>HC in Construction Economics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA (Hons) in Creative Design </t>
+  </si>
+  <si>
+    <t>Interior Architecture and Desi</t>
+  </si>
+  <si>
+    <t>BEng Hons Civil Engineering</t>
+  </si>
+  <si>
+    <t>Connected and Autonomous Vehic</t>
+  </si>
+  <si>
+    <t>Bachelor of Engineering in Dat</t>
+  </si>
+  <si>
+    <t>BEng in Electronic &amp; Computer</t>
+  </si>
+  <si>
+    <t>HC in Electronic &amp; Computer</t>
+  </si>
+  <si>
+    <t>HC Electr and Comp Engineering</t>
+  </si>
+  <si>
+    <t>Engineering (Undenominated) L6</t>
+  </si>
+  <si>
+    <t>Engineering (Undenominated) L7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cert in Lean Sigma GB L7 </t>
+  </si>
+  <si>
+    <t>Mechanical Analysis and Automa</t>
+  </si>
+  <si>
+    <t>HC in Mechanical Engineering</t>
+  </si>
+  <si>
+    <t>Bachelor of Engineering</t>
+  </si>
+  <si>
+    <t>Polymer Processing</t>
+  </si>
+  <si>
+    <t>BEng in Precision Engineering</t>
+  </si>
+  <si>
+    <t>HC in Precision Engineering</t>
+  </si>
+  <si>
+    <t>Bachelor of Engineering (Honou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master of Engineering in Road </t>
+  </si>
+  <si>
+    <t>Postgraduate Diploma in Engine</t>
+  </si>
+  <si>
+    <t>Sensors for Autonomous Vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 6 Special Purpose Award </t>
+  </si>
+  <si>
+    <t>BA(Hons) Writing &amp; Literature</t>
+  </si>
+  <si>
+    <t>Bachelor of Science in Quantit</t>
+  </si>
+  <si>
+    <t>BA Hons Application Design</t>
+  </si>
+  <si>
+    <t>BSc in Computing L7</t>
+  </si>
+  <si>
+    <t>Computing</t>
+  </si>
+  <si>
+    <t>Computer Networks and Cloud In</t>
+  </si>
+  <si>
+    <t>BSc Computer Networks &amp; Cloud</t>
+  </si>
+  <si>
+    <t>Secure IT and Deep/Machine Lea</t>
+  </si>
+  <si>
+    <t>Software Development (Add On)</t>
+  </si>
+  <si>
+    <t>Smart Technologies</t>
+  </si>
+  <si>
+    <t>BSc in Software Development</t>
+  </si>
+  <si>
+    <t>Software Development</t>
+  </si>
+  <si>
+    <t>Certificate in BIM and Lean Co</t>
+  </si>
+  <si>
+    <t>Certificate in Construction La</t>
+  </si>
+  <si>
+    <t>Cert Drink Water Treat Opera</t>
+  </si>
+  <si>
+    <t>Master of Science in Project M</t>
+  </si>
+  <si>
+    <t>Postgraduate Diploma in Scienc</t>
+  </si>
+  <si>
+    <t>Wastewater Treatment Operation</t>
+  </si>
+  <si>
+    <t>BArch Hons Architecture</t>
+  </si>
+  <si>
+    <t>BA in Interior Architecture</t>
+  </si>
+  <si>
+    <t>BEng Civil Engineering L7</t>
+  </si>
+  <si>
+    <t>BSc in Agri-Food Science</t>
+  </si>
+  <si>
+    <t>BSc (Hons) Agri-Food Science</t>
+  </si>
+  <si>
+    <t>BSc (Hons) Applied Medical Sci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSc in Biopharmaceutical Sci </t>
+  </si>
+  <si>
+    <t>Master of Science in Bioproces</t>
+  </si>
+  <si>
+    <t>Master of Science in EHS Manag</t>
+  </si>
+  <si>
+    <t>BSc in Env Protection Level 7</t>
+  </si>
+  <si>
+    <t>Certificate in Science in Food</t>
+  </si>
+  <si>
+    <t>BSc (Hons) Health Sc Phys Acti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certificate in Medical Device </t>
+  </si>
+  <si>
+    <t>Higher Diploma in Science in M</t>
+  </si>
+  <si>
+    <t>HC Occup Safety &amp; Health L6</t>
+  </si>
+  <si>
+    <t>Bachelor of Science in Occupat</t>
+  </si>
+  <si>
+    <t>BSc in Pharmaceutical Science</t>
+  </si>
+  <si>
+    <t>Cert in Water Services Mgmt</t>
+  </si>
+  <si>
+    <t>MSc in Water Services Mgmt</t>
+  </si>
+  <si>
+    <t>PGD in Water Services Mgmt</t>
+  </si>
+  <si>
+    <t>SG_BACCO_K08</t>
+  </si>
+  <si>
+    <t>SG_BADDO_J07</t>
+  </si>
+  <si>
+    <t>SG_BADMN_B07</t>
+  </si>
+  <si>
+    <t>SG_BADMN_J07</t>
+  </si>
+  <si>
+    <t>SG_BAPPL_B07</t>
+  </si>
+  <si>
+    <t>SG_BBMTS_K08</t>
+  </si>
+  <si>
+    <t>SG_BBUSS_K08</t>
+  </si>
+  <si>
+    <t>SG_BFINV_K08</t>
+  </si>
+  <si>
+    <t>SG_BGENE_K08</t>
+  </si>
+  <si>
+    <t>SG_BHRMS_K08</t>
+  </si>
+  <si>
+    <t>SG_BINSL_H08</t>
+  </si>
+  <si>
+    <t>SG_BINSU_H08</t>
+  </si>
+  <si>
+    <t>SG_BINTE_F06</t>
+  </si>
+  <si>
+    <t>SG_BINTR_J07</t>
+  </si>
+  <si>
+    <t>SG_BMAAP_J07</t>
+  </si>
+  <si>
+    <t>SG_BMKTG_J07</t>
+  </si>
+  <si>
+    <t>SG_BSPOR_H08</t>
+  </si>
+  <si>
+    <t>SG_BTOUR_H08</t>
+  </si>
+  <si>
+    <t>SG_HENGL_H08</t>
+  </si>
+  <si>
+    <t>SG_HJOIN_H08</t>
+  </si>
+  <si>
+    <t>SG_PCOUN_E06</t>
+  </si>
+  <si>
+    <t>SG_WSOCI_M09</t>
+  </si>
+  <si>
+    <t>SG_WSOCI_O09</t>
+  </si>
+  <si>
+    <t>SG_WSOWO_M09</t>
+  </si>
+  <si>
+    <t>SG_AARTT_H08</t>
+  </si>
+  <si>
+    <t>SG_APERA_B07</t>
+  </si>
+  <si>
+    <t>SG_APERT_B07</t>
+  </si>
+  <si>
+    <t>SG_CCEOL_C06</t>
+  </si>
+  <si>
+    <t>SG_CCONS_C06</t>
+  </si>
+  <si>
+    <t>SG_DIAAD_K08</t>
+  </si>
+  <si>
+    <t>SG_EADVA_E08</t>
+  </si>
+  <si>
+    <t>SG_ECIVL_H08</t>
+  </si>
+  <si>
+    <t>SG_ECONN_M09</t>
+  </si>
+  <si>
+    <t>SG_ECONN_O09</t>
+  </si>
+  <si>
+    <t>SG_EDATA_J07</t>
+  </si>
+  <si>
+    <t>SG_EELCO_B07</t>
+  </si>
+  <si>
+    <t>SG_EELCO_C06</t>
+  </si>
+  <si>
+    <t>SG_EGENE_X06</t>
+  </si>
+  <si>
+    <t>SG_EGENE_X07</t>
+  </si>
+  <si>
+    <t>SG_EMECH_S06</t>
+  </si>
+  <si>
+    <t>SG_EPOLY_B07</t>
+  </si>
+  <si>
+    <t>SG_EPOLY_K08</t>
+  </si>
+  <si>
+    <t>SG_EPREC_C06</t>
+  </si>
+  <si>
+    <t>SG_EPREC_J07</t>
+  </si>
+  <si>
+    <t>SG_EPREC_K08</t>
+  </si>
+  <si>
+    <t>SG_EROAD_M09</t>
+  </si>
+  <si>
+    <t>SG_EROAD_O09</t>
+  </si>
+  <si>
+    <t>SG_ESENS_E09</t>
+  </si>
+  <si>
+    <t>SG_EVALI_S06</t>
+  </si>
+  <si>
+    <t>SG_HWRIT_H08</t>
+  </si>
+  <si>
+    <t>SG_JQUAN_J07</t>
+  </si>
+  <si>
+    <t>SG_KAPPL_H08</t>
+  </si>
+  <si>
+    <t>SG_KCMPU_B07</t>
+  </si>
+  <si>
+    <t>SG_KCMPU_C06</t>
+  </si>
+  <si>
+    <t>SG_KCMPU_H08</t>
+  </si>
+  <si>
+    <t>SG_KCNCI_K08</t>
+  </si>
+  <si>
+    <t>SG_KNCLD_B07</t>
+  </si>
+  <si>
+    <t>SG_KNCLD_E08</t>
+  </si>
+  <si>
+    <t>SG_KNCLD_H08</t>
+  </si>
+  <si>
+    <t>SG_KSECU_E08</t>
+  </si>
+  <si>
+    <t>SG_KSFTD_K08</t>
+  </si>
+  <si>
+    <t>SG_KSMAR_H08</t>
+  </si>
+  <si>
+    <t>SG_KSODV_B07</t>
+  </si>
+  <si>
+    <t>SG_KSODV_H08</t>
+  </si>
+  <si>
+    <t>SG_KSODV_K08</t>
+  </si>
+  <si>
+    <t>SG_KSOFT_E08</t>
+  </si>
+  <si>
+    <t>SG_SBIMA_S09</t>
+  </si>
+  <si>
+    <t>SG_SCONS_S09</t>
+  </si>
+  <si>
+    <t>SG_SDRIN_E06</t>
+  </si>
+  <si>
+    <t>SG_SPROJ_M09</t>
+  </si>
+  <si>
+    <t>SG_SPROJ_O09</t>
+  </si>
+  <si>
+    <t>SG_SWAST_E06</t>
+  </si>
+  <si>
+    <t>SG_VARCH_H08</t>
+  </si>
+  <si>
+    <t>SG_ECIVI_B07</t>
+  </si>
+  <si>
+    <t>SG_EMECT_B07</t>
+  </si>
+  <si>
+    <t>SG_SAGRI_B07</t>
+  </si>
+  <si>
+    <t>SG_SAGRI_H08</t>
+  </si>
+  <si>
+    <t>SG_SAPMS_H08</t>
+  </si>
+  <si>
+    <t>SG_SBPRO_M09</t>
+  </si>
+  <si>
+    <t>SG_SBPRO_O09</t>
+  </si>
+  <si>
+    <t>SG_SEHSM_M09</t>
+  </si>
+  <si>
+    <t>SG_SENVP_07</t>
+  </si>
+  <si>
+    <t>SG_SFOOD_N09</t>
+  </si>
+  <si>
+    <t>SG_SHEAL_H08</t>
+  </si>
+  <si>
+    <t>SG_SMEDI_E08</t>
+  </si>
+  <si>
+    <t>SG_SMEDI_L08</t>
+  </si>
+  <si>
+    <t>SG_SOCCU_C06</t>
+  </si>
+  <si>
+    <t>SG_SOCCU_J07</t>
+  </si>
+  <si>
+    <t>SG_SPHAR_J07</t>
+  </si>
+  <si>
+    <t>SG_SWATE_A09</t>
+  </si>
+  <si>
+    <t>SG_SWATE_M09</t>
+  </si>
+  <si>
+    <t>SG_SWATE_O09</t>
   </si>
 </sst>
 </file>
@@ -1056,15 +1587,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1072,15 +1609,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1361,1427 +1911,2817 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B178"/>
+  <dimension ref="A3:E220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B178"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D48" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D49" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D50" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D52" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D54" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D55" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D57" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D58" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D60" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D62" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D63" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D64" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D65" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D66" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D67" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D68" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D69" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D70" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D71" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D72" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D73" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D74" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D75" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D76" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D77" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D78" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D79" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D80" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D81" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D82" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D83" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D84" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D85" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D86" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D87" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D88" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D89" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D90" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D91" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D92" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D93" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D94" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D95" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D96" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D97" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D98" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D99" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D100" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D101" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D102" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D103" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D104" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D105" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D106" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D107" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D108" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D109" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D110" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D111" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D112" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D113" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D114" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D115" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D116" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D117" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D118" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D119" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D120" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D121" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D122" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D123" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D124" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D125" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D126" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D127" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D128" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D129" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D130" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>249</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D131" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D132" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>253</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D133" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>255</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D134" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>257</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D135" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>259</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D136" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D137" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>263</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D138" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>265</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D139" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>267</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D140" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>268</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D141" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>270</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D142" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D143" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D144" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>276</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D145" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>278</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D146" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D147" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>281</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D148" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>283</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D149" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>285</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D150" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>287</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D151" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>289</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D152" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>291</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D153" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>293</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D154" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>295</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D155" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>297</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D156" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D157" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>300</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D158" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>302</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D159" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>304</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D160" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>306</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D161" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>308</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D162" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>310</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D163" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>311</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D164" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>313</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D165" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>315</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D166" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>317</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D167" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>318</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D168" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>320</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D169" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>322</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D170" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>324</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D171" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>326</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D172" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>328</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D173" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D174" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>332</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D175" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>333</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D176" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>335</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D177" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>337</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>338</v>
       </c>
+      <c r="D178" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D179" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D180" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D181" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D182" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D183" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D184" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D185" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D186" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D187" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D188" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D189" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D190" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D191" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D192" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="193" spans="4:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D193" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="194" spans="4:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D194" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="195" spans="4:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D195" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="196" spans="4:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D196" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="197" spans="4:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D197" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="198" spans="4:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D198" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="199" spans="4:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D199" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="200" spans="4:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D200" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="201" spans="4:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D201" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="202" spans="4:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D202" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="203" spans="4:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D203" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="204" spans="4:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D204" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="205" spans="4:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D205" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="206" spans="4:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D206" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="207" spans="4:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D207" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="208" spans="4:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D208" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="209" spans="4:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D209" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="210" spans="4:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D210" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="211" spans="4:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D211" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="212" spans="4:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D212" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="213" spans="4:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D213" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="214" spans="4:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D214" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="215" spans="4:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D215" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="216" spans="4:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D216" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="217" spans="4:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D217" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="218" spans="4:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D218" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="219" spans="4:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D219" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="220" spans="4:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D220" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>403</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="D4:E5148">
+    <sortCondition ref="E4:E5148"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>